--- a/docu/TestUploadFolder/admin/Man_Gal_6.xlsx
+++ b/docu/TestUploadFolder/admin/Man_Gal_6.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7943B2-C98A-45EE-9B03-C4238FFB5256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58560" yWindow="-6360" windowWidth="21600" windowHeight="11325"/>
+    <workbookView xWindow="31635" yWindow="-210" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,19 +626,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -670,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -684,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -698,7 +688,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -709,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -720,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -739,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -750,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -761,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -772,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -783,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -794,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -805,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -816,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -827,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -838,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -849,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -860,7 +850,7 @@
         <v>7.998452953432989E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>22</v>
       </c>
@@ -871,7 +861,7 @@
         <v>7.2394658256464447E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>24</v>
       </c>
@@ -882,7 +872,7 @@
         <v>8.9944226380953597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>26</v>
       </c>
@@ -893,7 +883,7 @@
         <v>3.4481068318889412E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>28</v>
       </c>
@@ -904,7 +894,7 @@
         <v>8.7854393330985242E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>30</v>
       </c>
@@ -915,7 +905,7 @@
         <v>0.15677018083681105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>32</v>
       </c>
@@ -926,7 +916,7 @@
         <v>0.2194692788928036</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>34</v>
       </c>
@@ -937,7 +927,7 @@
         <v>0.27622155880670324</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>36</v>
       </c>
@@ -948,7 +938,7 @@
         <v>0.32191470976857728</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>38</v>
       </c>
@@ -959,7 +949,7 @@
         <v>0.35485144305475413</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -970,7 +960,7 @@
         <v>0.37848637895271747</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45</v>
       </c>
@@ -981,7 +971,7 @@
         <v>0.40201012152539467</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>50</v>
       </c>
@@ -992,7 +982,7 @@
         <v>0.32161926581078737</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>55</v>
       </c>
@@ -1003,7 +993,7 @@
         <v>0.24644021676616962</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>60</v>
       </c>
@@ -1014,7 +1004,7 @@
         <v>0.17616362932369814</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>65</v>
       </c>
@@ -1025,7 +1015,7 @@
         <v>0.10218358498322928</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>70</v>
       </c>
@@ -1036,7 +1026,7 @@
         <v>8.0605930930906372E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>75</v>
       </c>
@@ -1047,7 +1037,7 @@
         <v>5.8473823248763629E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>80</v>
       </c>
@@ -1058,7 +1048,7 @@
         <v>3.8629179261958468E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>85</v>
       </c>
@@ -1069,7 +1059,7 @@
         <v>2.1985345455381666E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>90</v>
       </c>
@@ -1080,7 +1070,7 @@
         <v>1.1384029159801502E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>105</v>
       </c>
@@ -1091,7 +1081,7 @@
         <v>2.7742436518705172E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>120</v>
       </c>
@@ -1102,7 +1092,7 @@
         <v>1.4085822154911796E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>135</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>9.4251963133003475E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>150</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>7.0618157575208637E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>165</v>
       </c>
@@ -1135,7 +1125,7 @@
         <v>5.7602238685059695E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>180</v>
       </c>
@@ -1146,7 +1136,7 @@
         <v>4.8821051090209465E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
